--- a/src/test/resources/2007_1.xlsx
+++ b/src/test/resources/2007_1.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jipengfei/project/alibabaeasyexcel/easyexcel1/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B019FBE0-14D8-1D44-8D57-74AE60B42CEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2049,8 +2056,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2098,10 +2105,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2426,14 +2441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -8802,4 +8817,33 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFDAEEB-B56A-794F-93F5-D4C82B5C65AF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1">
+        <v>34343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>34343</v>
+      </c>
+      <c r="B3">
+        <v>3434</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>